--- a/利润表/688658.xlsx
+++ b/利润表/688658.xlsx
@@ -714,7 +714,7 @@
       </c>
       <c r="J2" t="inlineStr">
         <is>
-          <t>002</t>
+          <t>001</t>
         </is>
       </c>
       <c r="K2" t="inlineStr">
@@ -729,48 +729,48 @@
       </c>
       <c r="M2" t="inlineStr">
         <is>
-          <t>2020-12-04 00:00:00</t>
+          <t>2020-12-18 00:00:00</t>
         </is>
       </c>
       <c r="N2" t="inlineStr">
         <is>
-          <t>2020-06-30 00:00:00</t>
+          <t>2017-12-31 00:00:00</t>
         </is>
       </c>
       <c r="O2" t="n">
-        <v>132251328.35</v>
+        <v>161561304.1</v>
       </c>
       <c r="P2" t="n">
-        <v>1681584033.13</v>
+        <v>2700086378.65</v>
       </c>
       <c r="Q2" t="n">
-        <v>1541694663.03</v>
+        <v>2528500292.11</v>
       </c>
       <c r="R2" t="inlineStr"/>
       <c r="S2" t="n">
-        <v>621242077.4</v>
+        <v>1538299860.75</v>
       </c>
       <c r="T2" t="n">
-        <v>621242077.4</v>
+        <v>1538299860.75</v>
       </c>
       <c r="U2" t="inlineStr"/>
       <c r="V2" t="n">
-        <v>741792240.2</v>
+        <v>652293211.21</v>
       </c>
       <c r="W2" t="n">
-        <v>85646338.56999999</v>
+        <v>161086114.15</v>
       </c>
       <c r="X2" t="n">
-        <v>20930930.43</v>
+        <v>83228822.56</v>
       </c>
       <c r="Y2" t="n">
-        <v>145884910.55</v>
+        <v>188948044.98</v>
       </c>
       <c r="Z2" t="n">
-        <v>147439790.61</v>
+        <v>199035943.41</v>
       </c>
       <c r="AA2" t="n">
-        <v>15142154.37</v>
+        <v>38161559.7</v>
       </c>
       <c r="AB2" t="inlineStr"/>
       <c r="AC2" t="inlineStr"/>
@@ -778,7 +778,7 @@
       <c r="AE2" t="inlineStr"/>
       <c r="AF2" t="inlineStr"/>
       <c r="AG2" t="n">
-        <v>18290519.3</v>
+        <v>38082779.41</v>
       </c>
       <c r="AH2" t="inlineStr"/>
       <c r="AI2" t="inlineStr"/>
@@ -792,7 +792,7 @@
       <c r="AQ2" t="inlineStr"/>
       <c r="AR2" t="inlineStr"/>
       <c r="AS2" t="n">
-        <v>120816425.8</v>
+        <v>119631295.25</v>
       </c>
       <c r="AT2" t="inlineStr"/>
     </row>

--- a/利润表/688658.xlsx
+++ b/利润表/688658.xlsx
@@ -734,43 +734,47 @@
       </c>
       <c r="N2" t="inlineStr">
         <is>
-          <t>2017-12-31 00:00:00</t>
+          <t>2019-12-31 00:00:00</t>
         </is>
       </c>
       <c r="O2" t="n">
-        <v>161561304.1</v>
+        <v>285454044.81</v>
       </c>
       <c r="P2" t="n">
-        <v>2700086378.65</v>
+        <v>4287579921.77</v>
       </c>
       <c r="Q2" t="n">
-        <v>2528500292.11</v>
-      </c>
-      <c r="R2" t="inlineStr"/>
+        <v>3978901676.27</v>
+      </c>
+      <c r="R2" t="n">
+        <v>8.2476503683</v>
+      </c>
       <c r="S2" t="n">
-        <v>1538299860.75</v>
+        <v>1675629906.3</v>
       </c>
       <c r="T2" t="n">
-        <v>1538299860.75</v>
-      </c>
-      <c r="U2" t="inlineStr"/>
+        <v>1675629906.3</v>
+      </c>
+      <c r="U2" t="n">
+        <v>5.6774479736</v>
+      </c>
       <c r="V2" t="n">
-        <v>652293211.21</v>
+        <v>1881247724.37</v>
       </c>
       <c r="W2" t="n">
-        <v>161086114.15</v>
+        <v>181051273.92</v>
       </c>
       <c r="X2" t="n">
-        <v>83228822.56</v>
+        <v>38165594.12</v>
       </c>
       <c r="Y2" t="n">
-        <v>188948044.98</v>
+        <v>328058787.31</v>
       </c>
       <c r="Z2" t="n">
-        <v>199035943.41</v>
+        <v>331767472.85</v>
       </c>
       <c r="AA2" t="n">
-        <v>38161559.7</v>
+        <v>43973186.77</v>
       </c>
       <c r="AB2" t="inlineStr"/>
       <c r="AC2" t="inlineStr"/>
@@ -778,7 +782,7 @@
       <c r="AE2" t="inlineStr"/>
       <c r="AF2" t="inlineStr"/>
       <c r="AG2" t="n">
-        <v>38082779.41</v>
+        <v>51814533.79</v>
       </c>
       <c r="AH2" t="inlineStr"/>
       <c r="AI2" t="inlineStr"/>
@@ -788,13 +792,21 @@
       <c r="AM2" t="inlineStr"/>
       <c r="AN2" t="inlineStr"/>
       <c r="AO2" t="inlineStr"/>
-      <c r="AP2" t="inlineStr"/>
-      <c r="AQ2" t="inlineStr"/>
-      <c r="AR2" t="inlineStr"/>
+      <c r="AP2" t="n">
+        <v>7.6550376209</v>
+      </c>
+      <c r="AQ2" t="n">
+        <v>1.437314814997</v>
+      </c>
+      <c r="AR2" t="n">
+        <v>6.532937926962</v>
+      </c>
       <c r="AS2" t="n">
-        <v>119631295.25</v>
-      </c>
-      <c r="AT2" t="inlineStr"/>
+        <v>268811752.24</v>
+      </c>
+      <c r="AT2" t="n">
+        <v>3.13044955459</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/利润表/688658.xlsx
+++ b/利润表/688658.xlsx
@@ -714,14 +714,14 @@
       </c>
       <c r="J2" t="inlineStr">
         <is>
+          <t>002</t>
+        </is>
+      </c>
+      <c r="K2" t="inlineStr">
+        <is>
           <t>001</t>
         </is>
       </c>
-      <c r="K2" t="inlineStr">
-        <is>
-          <t>001</t>
-        </is>
-      </c>
       <c r="L2" t="inlineStr">
         <is>
           <t>2</t>
@@ -734,47 +734,43 @@
       </c>
       <c r="N2" t="inlineStr">
         <is>
-          <t>2019-12-31 00:00:00</t>
+          <t>2020-06-30 00:00:00</t>
         </is>
       </c>
       <c r="O2" t="n">
-        <v>285454044.81</v>
+        <v>132251328.35</v>
       </c>
       <c r="P2" t="n">
-        <v>4287579921.77</v>
+        <v>1681584033.13</v>
       </c>
       <c r="Q2" t="n">
-        <v>3978901676.27</v>
-      </c>
-      <c r="R2" t="n">
-        <v>8.2476503683</v>
-      </c>
+        <v>1541694663.03</v>
+      </c>
+      <c r="R2" t="inlineStr"/>
       <c r="S2" t="n">
-        <v>1675629906.3</v>
+        <v>621242077.4</v>
       </c>
       <c r="T2" t="n">
-        <v>1675629906.3</v>
-      </c>
-      <c r="U2" t="n">
-        <v>5.6774479736</v>
-      </c>
+        <v>621242077.4</v>
+      </c>
+      <c r="U2" t="inlineStr"/>
       <c r="V2" t="n">
-        <v>1881247724.37</v>
+        <v>741792240.2</v>
       </c>
       <c r="W2" t="n">
-        <v>181051273.92</v>
+        <v>85646338.56999999</v>
       </c>
       <c r="X2" t="n">
-        <v>38165594.12</v>
+        <v>20930930.43</v>
       </c>
       <c r="Y2" t="n">
-        <v>328058787.31</v>
+        <v>145884910.55</v>
       </c>
       <c r="Z2" t="n">
-        <v>331767472.85</v>
+        <v>147439790.61</v>
       </c>
       <c r="AA2" t="n">
-        <v>43973186.77</v>
+        <v>15142154.37</v>
       </c>
       <c r="AB2" t="inlineStr"/>
       <c r="AC2" t="inlineStr"/>
@@ -782,7 +778,7 @@
       <c r="AE2" t="inlineStr"/>
       <c r="AF2" t="inlineStr"/>
       <c r="AG2" t="n">
-        <v>51814533.79</v>
+        <v>18290519.3</v>
       </c>
       <c r="AH2" t="inlineStr"/>
       <c r="AI2" t="inlineStr"/>
@@ -792,21 +788,13 @@
       <c r="AM2" t="inlineStr"/>
       <c r="AN2" t="inlineStr"/>
       <c r="AO2" t="inlineStr"/>
-      <c r="AP2" t="n">
-        <v>7.6550376209</v>
-      </c>
-      <c r="AQ2" t="n">
-        <v>1.437314814997</v>
-      </c>
-      <c r="AR2" t="n">
-        <v>6.532937926962</v>
-      </c>
+      <c r="AP2" t="inlineStr"/>
+      <c r="AQ2" t="inlineStr"/>
+      <c r="AR2" t="inlineStr"/>
       <c r="AS2" t="n">
-        <v>268811752.24</v>
-      </c>
-      <c r="AT2" t="n">
-        <v>3.13044955459</v>
-      </c>
+        <v>120816425.8</v>
+      </c>
+      <c r="AT2" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
